--- a/MetodologiaSolucionProblemas/Prueba de escritorio.xlsx
+++ b/MetodologiaSolucionProblemas/Prueba de escritorio.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03d0db00f6fa0e77/Documentos/Informatica1/samuel/Informatica-1/MetodologiaSolucionProblemas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_4C141FDA363CC597E94B865D48E676D868B87484" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A0AF07-F5BC-47F5-B82E-D24856C78DFA}"/>
+  <bookViews>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12777" windowHeight="15094" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId5"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t xml:space="preserve">Valor sueldo </t>
   </si>
@@ -19,30 +28,6 @@
     <t xml:space="preserve">Mensaje por pantalla </t>
   </si>
   <si>
-    <t xml:space="preserve">Venta 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venta 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venta 3 </t>
-  </si>
-  <si>
-    <t>SueldoF</t>
-  </si>
-  <si>
-    <t>Ingrese la primera venta</t>
-  </si>
-  <si>
-    <t>Ingrese la segunda venta</t>
-  </si>
-  <si>
-    <t>Ingrese la tercera venta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sueldo final es </t>
-  </si>
-  <si>
     <t>Notas</t>
   </si>
   <si>
@@ -64,21 +49,6 @@
     <t>nF</t>
   </si>
   <si>
-    <t>Ingrese la nota de proyecto final</t>
-  </si>
-  <si>
-    <t>Ingrese la nota de exposición</t>
-  </si>
-  <si>
-    <t>Ingrese la nota de los talleres</t>
-  </si>
-  <si>
-    <t>Ingrese la nota parcial</t>
-  </si>
-  <si>
-    <t>La nota final es</t>
-  </si>
-  <si>
     <t>Tiempo</t>
   </si>
   <si>
@@ -91,26 +61,88 @@
     <t>s</t>
   </si>
   <si>
-    <t>Ingrese el tiempo en segundos</t>
-  </si>
-  <si>
-    <t>El tiempo es: ' , h, ' h ', m, 'm ', s, 's'</t>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>sF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El total de la comisión es: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sueldo recibido por el vendedor es: </t>
+  </si>
+  <si>
+    <t>Ingrese el valor de la venta 1:</t>
+  </si>
+  <si>
+    <t>Ingrese el valor de la venta 2:</t>
+  </si>
+  <si>
+    <t>Ingrese el valor de la venta 3:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese la nota del proyecto: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese la nota de la exposicion: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese la nota de talleres: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese la nota de parcial: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La nota final es: </t>
+  </si>
+  <si>
+    <t>Ingrese el valor del tiempo en segundos:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El tiempo es igual a: </t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>minutos</t>
+  </si>
+  <si>
+    <t>segundos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -119,7 +151,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,8 +160,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -143,46 +181,52 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -372,217 +416,255 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.88"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>5000.0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3">
-        <v>20000.0</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3">
-        <v>15000.0</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
-        <v>424000.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
         <v>20</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3">
-        <v>3800.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>20.0</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>